--- a/3 - Nao_Encontrados_MyMaps.xlsx
+++ b/3 - Nao_Encontrados_MyMaps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C7E3BE-4901-4255-875C-737AB33A74BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB224D97-0486-42A3-A920-8DC8C8462CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,416 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="136">
+  <si>
+    <t>COLABORADOR</t>
+  </si>
+  <si>
+    <t>ENDERECO</t>
+  </si>
+  <si>
+    <t>TURNO</t>
+  </si>
+  <si>
+    <t>GABRIELLY GLECE C LIMA- R. QUATROZE, 148 N PAMPULHA, VESPASIANO- 33203-414 - 07:15 AS 11:15</t>
+  </si>
+  <si>
+    <t>R. QUATROZE, 148 N PAMPULHA, VESPASIANO</t>
+  </si>
+  <si>
+    <t>07:15 AS 11:15</t>
+  </si>
+  <si>
+    <t>ISAAC MARCAL NERES SILVA- AL. SO REI, 112 ANGICOS, VESPASIANO- 33206-276 - 07:15 AS 11:15</t>
+  </si>
+  <si>
+    <t>AL. SO REI, 112 ANGICOS, VESPASIANO</t>
+  </si>
+  <si>
+    <t>DENISE SUELI MORAIS MOREIRA- AV. SALAMANCA, 860 JARDIM EUROPA, SERRA VERDE- 31620-010 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>AV. SALAMANCA, 860 JARDIM EUROPA, SERRA VERDE</t>
+  </si>
+  <si>
+    <t>07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>LUCAS EUFRAZIO DE SOUZA- R. ABRAAO LINCOLN, 1085 JK, SETE LAGOAS- 35702-184 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. ABRAAO LINCOLN, 1085 JK, SETE LAGOAS</t>
+  </si>
+  <si>
+    <t>ALEXSANDRO CARDOSO DA SILVA- AV. CASTELO BRANCO, 724 S. UNIVERSITARI, OURO PRETO- 75706-285 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>AV. CASTELO BRANCO, 724 S. UNIVERSITARI, OURO PRETO</t>
+  </si>
+  <si>
+    <t>CLEIBER AUGUSTO PEREIRA- R. RAUL TEIXEIRA DA COSTA, 281 CRUZEIRO, BELO HORIZONTE- 35720-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. RAUL TEIXEIRA DA COSTA, 281 CRUZEIRO, BELO HORIZONTE</t>
+  </si>
+  <si>
+    <t>UARLEM MARTINS DE SOUZA- BROMELIA, 120 JD DALIANA, VESPASIANO- 33200-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>BROMELIA, 120 JD DALIANA, VESPASIANO</t>
+  </si>
+  <si>
+    <t>MICHEL HEBER DA SILVA- R. HELIO VIANA, 225 TUPI-B, JABOTICATUBAS- 31844-450 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. HELIO VIANA, 225 TUPI-B, JABOTICATUBAS</t>
+  </si>
+  <si>
+    <t>NILZA RAQUEL DOS SANTOS- R PADRE JOSE CAMPOS TAITSON, 406 ESTRELA DO SUL, IBIRITE- 32412-067 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R PADRE JOSE CAMPOS TAITSON, 406 ESTRELA DO SUL, IBIRITE</t>
+  </si>
+  <si>
+    <t>GERALDO MAGELA ROCHA- R. AFONSO PENA, 91,  BELA VISTA, RAPOSOS- 34400-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. AFONSO PENA, 91,  BELA VISTA, RAPOSOS</t>
+  </si>
+  <si>
+    <t>RODRIGO ADRIANO M DOMINGOS- R GAMELEIRA 56,  CIDADE JARDIM, CAETE- 34800-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R GAMELEIRA 56,  CIDADE JARDIM, CAETE</t>
+  </si>
+  <si>
+    <t>CRISTINA FRANCO CALUNGA- RUA PARAIBA 7,  MORRO BICAS, RAPOSOS- 34400-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>RUA PARAIBA 7,  MORRO BICAS, RAPOSOS</t>
+  </si>
+  <si>
+    <t>ARIELLE SILVA SANTOS- R. DR BOLIVAR FRETITAS, 86 CENTRO, RAPOSOS- 34400-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. DR BOLIVAR FRETITAS, 86 CENTRO, RAPOSOS</t>
+  </si>
+  <si>
+    <t>EDUARDA ESTEVES PEREIRA- JOSE MOREIRA, 93 DA LUA, PEDRO LEOPOLDO- 33600-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>JOSE MOREIRA, 93 DA LUA, PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>BIANCA DE SOUZA GOMES- RUA ALADIM CORREA FARIA 1097,  RESPLENDOR, BELO HORIZONTE- 30644-210 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>RUA ALADIM CORREA FARIA 1097,  RESPLENDOR, BELO HORIZONTE</t>
+  </si>
+  <si>
+    <t>RAYNER CRUZ RODRIGUES- R. JOSE DOTT BECATINI, 231 JD SAO GERALDO, INIMUTABA- 39243-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. JOSE DOTT BECATINI, 231 JD SAO GERALDO, INIMUTABA</t>
+  </si>
+  <si>
+    <t>PEDRO LUCAS DIAS- R. EXP JOAO BATISTA SOBRINHO, 11 PQ R BELISARIO, PEDRO LEOPOLDO- 33600-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. EXP JOAO BATISTA SOBRINHO, 11 PQ R BELISARIO, PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>MARCOS PEREIRA SANTOS- R. GUILHERME LADISLAU, 276 DOM PERDRO I, SAO JOSE DA LAPA- 33350-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. GUILHERME LADISLAU, 276 DOM PERDRO I, SAO JOSE DA LAPA</t>
+  </si>
+  <si>
+    <t>CRISTIANO COLETA SENA- RUA N SRA DAJUDA 35,  HORTO, BELO HORIZONTE- 31035-160 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>RUA N SRA DAJUDA 35,  HORTO, BELO HORIZONTE</t>
+  </si>
+  <si>
+    <t>EMERSON RIBEIRO A DE ALMEIDA- R. ANGATUBA, 32 SAO PAULO, BELO HORIZONTE- 31573-270 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. ANGATUBA, 32 SAO PAULO, BELO HORIZONTE</t>
+  </si>
+  <si>
+    <t>CLEITON DO NASCIMENTO CANDEIA- R. SANTA LUZIA, 618 IMPERIAL, VESPASIANO- 33202-002 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. SANTA LUZIA, 618 IMPERIAL, VESPASIANO</t>
+  </si>
+  <si>
+    <t>CHIRLENE APARECIDA SILVA- AL. DO AREIAO, 137 NOVA PAMPULHA, VESPASIANO- 33203-455 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>AL. DO AREIAO, 137 NOVA PAMPULHA, VESPASIANO</t>
+  </si>
+  <si>
+    <t>LEANDRO PINHEIRO DA SILVA- R. VALTERIO A VALLE, 214 CAIEIRAS, VESPASIANO- 33200-144 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. VALTERIO A VALLE, 214 CAIEIRAS, VESPASIANO</t>
+  </si>
+  <si>
+    <t>DIEGO DE JESUS MAURICIO SOARES- R. ROBERTO ROCHA, 146 V FORMOSO, ABADIA DOS DOURADOS- 33200-046 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. ROBERTO ROCHA, 146 V FORMOSO, ABADIA DOS DOURADOS</t>
+  </si>
+  <si>
+    <t>BRENO LUCAS FONSECA CREPARDE- R. ANTONIO HILARIO DE MELO, 186 L S ANTONIO, PEDRO LEOPOLDO- 33600-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. ANTONIO HILARIO DE MELO, 186 L S ANTONIO, PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>FREDERICO DIAS DE ARAUJO- R. CORONEL JOAO AUGUSTO MOREIR, 130 VILA OLGA, SANTA LUZIA- 33040-080 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. CORONEL JOAO AUGUSTO MOREIR, 130 VILA OLGA, SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RENY PEREIRA DA SILVA- AL. MARCELO, 37 VILA ESPORTIVA, VESPASIANO- 33202-407 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>AL. MARCELO, 37 VILA ESPORTIVA, VESPASIANO</t>
+  </si>
+  <si>
+    <t>PEDRO PHILLIPE F DA SILVA- R. BC ESMERALDA, 16 MARIA ANTONIETA, SANTA LUZIA- 33141-182 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. BC ESMERALDA, 16 MARIA ANTONIETA, SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>GABRIEL HENRIQUE M COSTA- AL. DOS IPES, 143 CID JARDIM, MATOZINHOS- 35720-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>AL. DOS IPES, 143 CID JARDIM, MATOZINHOS</t>
+  </si>
+  <si>
+    <t>JOSCIMAIRA SANTOS DE OLIVEIRA- R. SERRA AZUL, 90 SERRA DOURADA, ABADIA DOS DOURADOS- 33202-522 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. SERRA AZUL, 90 SERRA DOURADA, ABADIA DOS DOURADOS</t>
+  </si>
+  <si>
+    <t>WENIS ALVES RODRIGUES- R. BRASIL, 1390 FRANCELINO, JUATUBA- 35675-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. BRASIL, 1390 FRANCELINO, JUATUBA</t>
+  </si>
+  <si>
+    <t>JULIANO GONCALVES DA SILVA- AV. PRESIDENTE TRANCREDO NEVES, 1496 VILA DE FATIMA, FELIXLANDIA- 39237-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>AV. PRESIDENTE TRANCREDO NEVES, 1496 VILA DE FATIMA, FELIXLANDIA</t>
+  </si>
+  <si>
+    <t>CLEITON MARTINS DE OLIVEIRA- R. FRANCISCA F DA SILVA, 110 S J DO BURITI, FELIXLANDIA- 39237-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. FRANCISCA F DA SILVA, 110 S J DO BURITI, FELIXLANDIA</t>
+  </si>
+  <si>
+    <t>VINICIUS DIAS ALVES SOARES- R. ZERO TREIS, 231 PIONEIRO, FELIXLANDIA- 39237-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. ZERO TREIS, 231 PIONEIRO, FELIXLANDIA</t>
+  </si>
+  <si>
+    <t>THAYNAN MIRANDA Q ALBARELO- R. VEREADOR ATAIDE BARBOSA SOA, 40 CAIEIRAS, VESPASIANO- 33200-126 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. VEREADOR ATAIDE BARBOSA SOA, 40 CAIEIRAS, VESPASIANO</t>
+  </si>
+  <si>
+    <t>ANDERSON WEITZEL G DE OLIVEIRA- R. RUA RAIMUNDO FERN QUADROS, 131 LIBERDADE, FELIXLANDIA- 39237-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. RUA RAIMUNDO FERN QUADROS, 131 LIBERDADE, FELIXLANDIA</t>
+  </si>
+  <si>
+    <t>QUERCIO DE SOUZA RODRIGUES- R. EQUADOR, 1 JD CANADA, DIANOPOLIS- 77300-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. EQUADOR, 1 JD CANADA, DIANOPOLIS</t>
+  </si>
+  <si>
+    <t>FELIPE FERNANDES ALVES- R. BRASIL, 1371 FRANCELINO, JUATUBA- 36676-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. BRASIL, 1371 FRANCELINO, JUATUBA</t>
+  </si>
+  <si>
+    <t>VITOR VIANA PEREIRA DE SOUZA- R. VEREADOR JOAO TELESFORO FER, 331 CAIEIRAS, VESPASIANO- 33200-170 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. VEREADOR JOAO TELESFORO FER, 331 CAIEIRAS, VESPASIANO</t>
+  </si>
+  <si>
+    <t>PABLO HENRIQUE SILVA DE JESUS- R. MM, 44 MORRO ALTO, VESPASIANO- 33203-104 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. MM, 44 MORRO ALTO, VESPASIANO</t>
+  </si>
+  <si>
+    <t>MATEUS LEMOS DE SOUSA- R. 06, 330 SETOR OESTE, ALMAS- 77310-000 - 07:15 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. 06, 330 SETOR OESTE, ALMAS</t>
+  </si>
+  <si>
+    <t>MYLENA MARIA SOARES ABREU- R. DOUTOR ALFREDO M DA COSTA, 30 VALE FORMOSO, VESPASIANO- 33200-052 - 11:30 AS 17:30</t>
+  </si>
+  <si>
+    <t>R. DOUTOR ALFREDO M DA COSTA, 30 VALE FORMOSO, VESPASIANO</t>
+  </si>
+  <si>
+    <t>11:30 AS 17:30</t>
+  </si>
+  <si>
+    <t>LUCIANO DAVIDSON RODRIGUES- R. RUA CAPELINHA, 220 ANGICOS, VESPASIANO- 33200-000 - 12 X 36 - 07:30 AS 19:30</t>
+  </si>
+  <si>
+    <t>R. RUA CAPELINHA, 220 ANGICOS, VESPASIANO</t>
+  </si>
+  <si>
+    <t>12 X 36 - 07:30 AS 19:30</t>
+  </si>
+  <si>
+    <t>REGINALDO DE SOUZA PEREIRA- R. ARELI QUEIROZ SIMOES, 220 JD COMERCIARIOS, BELO HORIZONTE- 31650-410 - 12 X 36 - 07:30 AS 19:30</t>
+  </si>
+  <si>
+    <t>R. ARELI QUEIROZ SIMOES, 220 JD COMERCIARIOS, BELO HORIZONTE</t>
+  </si>
+  <si>
+    <t>RODMAR MEIRA VARGAS- R. ESPIRITO SANTO, 553 MORRO ALTO, VESPASIANO- 33200-000 - 12 X 36 - 19:30 AS 07:30</t>
+  </si>
+  <si>
+    <t>R. ESPIRITO SANTO, 553 MORRO ALTO, VESPASIANO</t>
+  </si>
+  <si>
+    <t>12 X 36 - 19:30 AS 07:30</t>
+  </si>
+  <si>
+    <t>FABRICIO INACIO ROCHA CAMPOS- R. MALUNGU, 1008 ELDORADO, CONTAGEM- 32310-380 - 12 X 36 - 19:30 AS 07:30</t>
+  </si>
+  <si>
+    <t>R. MALUNGU, 1008 ELDORADO, CONTAGEM</t>
+  </si>
+  <si>
+    <t>VIVIANE PRISCILLA F PATEZ- R. LAGOA, 200 MARAVILHAS, SAO JOSE DA LAPA- 33350-000 - 12 X 36 - 19:30 AS 07:30</t>
+  </si>
+  <si>
+    <t>R. LAGOA, 200 MARAVILHAS, SAO JOSE DA LAPA</t>
+  </si>
+  <si>
+    <t>ITALO RAMON NUNES DE SOUZA- AL. SORREI, 180 ANGICOS, VESPASIANO- 33206-276 - 12 X 36 - 19:30 AS 07:30</t>
+  </si>
+  <si>
+    <t>AL. SORREI, 180 ANGICOS, VESPASIANO</t>
+  </si>
+  <si>
+    <t>FELIPE WILLIAN BARBOSA MARQUES- R. H H, 149 MORRO ALTO, VESPASIANO- 33203-084 - 12 X 36 - 19:30 AS 07:30</t>
+  </si>
+  <si>
+    <t>R. H H, 149 MORRO ALTO, VESPASIANO</t>
+  </si>
+  <si>
+    <t>MICHELLE CATARINA NERES PINTO- R. CAPELINHA, 290 ANGICOS, VESPASIANO- 33200-000 - 12:50 A 22:30 SEG A SEXTA</t>
+  </si>
+  <si>
+    <t>R. CAPELINHA, 290 ANGICOS, VESPASIANO</t>
+  </si>
+  <si>
+    <t>12:50 A 22:30 SEG A SEXTA</t>
+  </si>
+  <si>
+    <t>RODRIGO MARTINS SOARES- R. RUA SANTA RITA, 200 IMPERIAL, VESPASIANO- 33200-000 - 12:50 A 22:30 SEG A SEXTA</t>
+  </si>
+  <si>
+    <t>R. RUA SANTA RITA, 200 IMPERIAL, VESPASIANO</t>
+  </si>
+  <si>
+    <t>JESSICA CRISTINA P S FERREIRA- R. JOAO RODRIGUES DA SILVA, 9 SAO PAULO, MATOZINHOS- 35720-000 - 12:50 A 22:30 SEG A SEXTA</t>
+  </si>
+  <si>
+    <t>R. JOAO RODRIGUES DA SILVA, 9 SAO PAULO, MATOZINHOS</t>
+  </si>
+  <si>
+    <t>SARA ESTER DE OLIVEIRA- R. JOSE COTTA DA FONSECA, 151 CAIEIRAS, VESPASIANO- 33200-160 - 12:50 A 22:30 SEG A SEXTA</t>
+  </si>
+  <si>
+    <t>R. JOSE COTTA DA FONSECA, 151 CAIEIRAS, VESPASIANO</t>
+  </si>
+  <si>
+    <t>BARBARA G DOS SANTOS BARBOSA- R. AMARAL JR, 343 SAO GABRIEL, BELO HORIZONTE- 31985-000 - 12:50 A 22:30 SEG A SEXTA</t>
+  </si>
+  <si>
+    <t>R. AMARAL JR, 343 SAO GABRIEL, BELO HORIZONTE</t>
+  </si>
+  <si>
+    <t>CAUA V B DE CASTRO GUIMARAES- R. AZULOES, 67 VIDA NOVA, VESPASIANO- 33204-076 - 13:00 AS 17:00</t>
+  </si>
+  <si>
+    <t>R. AZULOES, 67 VIDA NOVA, VESPASIANO</t>
+  </si>
+  <si>
+    <t>13:00 AS 17:00</t>
+  </si>
+  <si>
+    <t>THIAGO LOPES BARBOSA- RUA ALAMEDA DOS GERANIOS 597,  CIDADE JARDIM, ESMERALDAS- 35740-000 - 22:25 A 07:25 SEG. A SEXTA</t>
+  </si>
+  <si>
+    <t>RUA ALAMEDA DOS GERANIOS 597,  CIDADE JARDIM, ESMERALDAS</t>
+  </si>
+  <si>
+    <t>22:25 A 07:25 SEG. A SEXTA</t>
+  </si>
+  <si>
+    <t>JOYLSON ALVES SOARES- RUA NSA SRA CONCEICAO 265,  JANE, VESPASIANO- 33200-000 - 22:25 A 07:25 SEG. A SEXTA</t>
+  </si>
+  <si>
+    <t>RUA NSA SRA CONCEICAO 265,  JANE, VESPASIANO</t>
+  </si>
+  <si>
+    <t>AMANDA NAYARA CASSIANO PINTO- R. FLUMINENSE, 40 V ESPORTIVA, VESPASIANO- 33200-000 - 22:25 A 07:25 SEG. A SEXTA</t>
+  </si>
+  <si>
+    <t>R. FLUMINENSE, 40 V ESPORTIVA, VESPASIANO</t>
+  </si>
+  <si>
+    <t>VALTER OLIVEIRA DO NASCIMENTO- R. MM, 28 CJ MORRO ALTO, VESPASIANO- 33203-104 - 22:25 A 07:25 SEG. A SEXTA</t>
+  </si>
+  <si>
+    <t>R. MM, 28 CJ MORRO ALTO, VESPASIANO</t>
+  </si>
+  <si>
+    <t>JOHN EWERTON HIBANEZ MENDES- R. JOAO TEIXEIRA, 104 JD ALTEROSA, VESPASIANO- 33200-656 - 22:25 A 07:25 SEG. A SEXTA</t>
+  </si>
+  <si>
+    <t>R. JOAO TEIXEIRA, 104 JD ALTEROSA, VESPASIANO</t>
+  </si>
+  <si>
+    <t>WESLEY MATHEUS SANTOS OLIVEIRA- R. PIRAPANEMA, 84 ICAIVERA, ABADIA DOS DOURADOS- 32611-296 - 22:25 A 07:25 SEG. A SEXTA</t>
+  </si>
+  <si>
+    <t>R. PIRAPANEMA, 84 ICAIVERA, ABADIA DOS DOURADOS</t>
+  </si>
+  <si>
+    <t>MARCOS VINICIUS RUFINO SAMPAIO- R. ASTOR DE CASTRO MACHADO, 52 JK, SAO JOSE DA LAPA- 35798-600 - TURNO 4 X 2 - 07:15 AS 17:00H</t>
+  </si>
+  <si>
+    <t>R. ASTOR DE CASTRO MACHADO, 52 JK, SAO JOSE DA LAPA</t>
+  </si>
+  <si>
+    <t>TURNO 4 X 2 - 07:15 AS 17:00H</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,17 +750,711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="166" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>